--- a/assets/BOs/Loki.xlsx
+++ b/assets/BOs/Loki.xlsx
@@ -8,23 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\doc\coding\DoD\DeitiesOfDeath\public\assets\BOs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8767178-EC0A-4CF4-BD0C-F885245CF024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DABBA479-2225-4CE2-84D3-744078C0F4FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3375" yWindow="3375" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil1" sheetId="2" r:id="rId2"/>
+    <sheet name="Feuil2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="85">
-  <si>
-    <t>Loki - Water 2 TC FH build (Anatolia) - Kosis</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="107">
   <si>
     <t>Archaic</t>
   </si>
@@ -552,9 +550,6 @@
     <t>3 Wood (+ build Ox Cart)</t>
   </si>
   <si>
-    <t>Loki - Water FH build (Anatolia) - Kosis</t>
-  </si>
-  <si>
     <t>2 to Food (+builds Ox cart)</t>
   </si>
   <si>
@@ -773,6 +768,78 @@
       </rPr>
       <t xml:space="preserve"> / 12 + (+/- 18 FS)</t>
     </r>
+  </si>
+  <si>
+    <t>Advance</t>
+  </si>
+  <si>
+    <t>1 | 2 | 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Initial vils : 1 oxcart (send it to gold) -&gt; hunt / 2 wood  </t>
+  </si>
+  <si>
+    <t>when tree at 180 wood -&gt; vils go to food</t>
+  </si>
+  <si>
+    <t>3 | 0 | 1</t>
+  </si>
+  <si>
+    <t>1 dwarf gold</t>
+  </si>
+  <si>
+    <t>3 | 2 | 1</t>
+  </si>
+  <si>
+    <t>2 vils oxcart -&gt; wood</t>
+  </si>
+  <si>
+    <t>3 | 2 | 2</t>
+  </si>
+  <si>
+    <t>Instantly research pickaxe</t>
+  </si>
+  <si>
+    <t>5 | 2 | 2</t>
+  </si>
+  <si>
+    <t>2 vils hunt</t>
+  </si>
+  <si>
+    <t>5 | 2 | 3</t>
+  </si>
+  <si>
+    <t>7 | 2 | 3</t>
+  </si>
+  <si>
+    <t>handaxe</t>
+  </si>
+  <si>
+    <t>7 | 5 | 3</t>
+  </si>
+  <si>
+    <t>7 | 5 | 5</t>
+  </si>
+  <si>
+    <t>2 dwarf gold</t>
+  </si>
+  <si>
+    <t>3 vils wood</t>
+  </si>
+  <si>
+    <t>remark:</t>
+  </si>
+  <si>
+    <t>Eco upgrades - By Looki</t>
+  </si>
+  <si>
+    <t>Water FH build (Anatolia) - By Kosis</t>
+  </si>
+  <si>
+    <t>Water 2 TC FH build (Anatolia) - By Kosis</t>
+  </si>
+  <si>
+    <t>If you have access to a safe 2nd gold it can be good to go heimdall and spam einheri</t>
   </si>
 </sst>
 </file>
@@ -909,7 +976,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -927,6 +994,7 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1154,8 +1222,8 @@
   </sheetPr>
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1167,24 +1235,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
     </row>
     <row r="3" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1192,156 +1260,156 @@
     </row>
     <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="C11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
+      <c r="A15" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
     </row>
     <row r="16" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="C17" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="D17" s="1"/>
     </row>
@@ -1352,124 +1420,124 @@
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
+      <c r="A19" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
     </row>
     <row r="20" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="6"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="6"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="2"/>
       <c r="C24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="C25" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D25" s="1" t="s">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="16" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
     </row>
     <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="9"/>
       <c r="D27" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="9" t="s">
         <v>52</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>53</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="12" t="s">
         <v>55</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>56</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="6" t="s">
         <v>58</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>59</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="7"/>
@@ -1479,10 +1547,10 @@
       <c r="B31" s="14"/>
     </row>
     <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="16"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
+      <c r="A37" s="17"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1503,30 +1571,30 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D27"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
+      <c r="A1" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
+      <c r="A2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
     </row>
     <row r="3" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1534,262 +1602,262 @@
     </row>
     <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="C11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
+      <c r="A14" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
     </row>
     <row r="15" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
     <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
+      <c r="A17" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
     </row>
     <row r="18" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="1" t="s">
+    </row>
+    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
     </row>
     <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
       <c r="C22" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>70</v>
-      </c>
     </row>
     <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
+      <c r="A23" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
     </row>
     <row r="24" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1803,4 +1871,133 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96BD61D0-96A0-4CAD-92AE-2E0728EDFD97}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="59.140625" customWidth="1"/>
+    <col min="2" max="2" width="48.85546875" customWidth="1"/>
+    <col min="3" max="3" width="55.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/assets/BOs/Loki.xlsx
+++ b/assets/BOs/Loki.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\doc\coding\DoD\DeitiesOfDeath\public\assets\BOs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DABBA479-2225-4CE2-84D3-744078C0F4FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADAFF45A-A2E1-47B5-8E52-C2062778FEA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3375" yWindow="3375" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="109">
   <si>
     <t>Archaic</t>
   </si>
@@ -776,9 +776,6 @@
     <t>1 | 2 | 0</t>
   </si>
   <si>
-    <t xml:space="preserve">Initial vils : 1 oxcart (send it to gold) -&gt; hunt / 2 wood  </t>
-  </si>
-  <si>
     <t>when tree at 180 wood -&gt; vils go to food</t>
   </si>
   <si>
@@ -827,9 +824,6 @@
     <t>3 vils wood</t>
   </si>
   <si>
-    <t>remark:</t>
-  </si>
-  <si>
     <t>Eco upgrades - By Looki</t>
   </si>
   <si>
@@ -840,6 +834,18 @@
   </si>
   <si>
     <t>If you have access to a safe 2nd gold it can be good to go heimdall and spam einheri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Initial vils : 1 build oxcart (send it to gold) -&gt; hunt / 2 wood  </t>
+  </si>
+  <si>
+    <t>remark :</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=kdWf_uQ3xgw</t>
+  </si>
+  <si>
+    <t>https://youtu.be/kdWf_uQ3xgw?si=DCtXz05A6b4IafTj&amp;t=437</t>
   </si>
 </sst>
 </file>
@@ -1222,8 +1228,8 @@
   </sheetPr>
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1236,7 +1242,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -1543,7 +1549,9 @@
       <c r="D30" s="7"/>
     </row>
     <row r="31" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="13"/>
+      <c r="A31" s="13" t="s">
+        <v>108</v>
+      </c>
       <c r="B31" s="14"/>
     </row>
     <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1568,17 +1576,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE912F72-140E-48EF-8F53-4729AA2845B1}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -1858,6 +1866,11 @@
       <c r="C27" s="1"/>
       <c r="D27" s="7" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1877,8 +1890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96BD61D0-96A0-4CAD-92AE-2E0728EDFD97}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1890,7 +1903,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1908,80 +1921,80 @@
         <v>84</v>
       </c>
       <c r="B4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" t="s">
         <v>85</v>
       </c>
-      <c r="C4" t="s">
-        <v>86</v>
-      </c>
       <c r="D4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" t="s">
         <v>87</v>
-      </c>
-      <c r="B5" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" t="s">
         <v>89</v>
-      </c>
-      <c r="B6" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" t="s">
         <v>93</v>
-      </c>
-      <c r="B8" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" t="s">
         <v>96</v>
-      </c>
-      <c r="B10" t="s">
-        <v>94</v>
-      </c>
-      <c r="C10" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" t="s">
         <v>99</v>
-      </c>
-      <c r="B12" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -1991,10 +2004,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/assets/BOs/Loki.xlsx
+++ b/assets/BOs/Loki.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\doc\coding\DoD\DeitiesOfDeath\public\assets\BOs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADAFF45A-A2E1-47B5-8E52-C2062778FEA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{339AAE67-3417-4BF1-8AB3-D0F52FD3A0B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -824,15 +824,6 @@
     <t>3 vils wood</t>
   </si>
   <si>
-    <t>Eco upgrades - By Looki</t>
-  </si>
-  <si>
-    <t>Water FH build (Anatolia) - By Kosis</t>
-  </si>
-  <si>
-    <t>Water 2 TC FH build (Anatolia) - By Kosis</t>
-  </si>
-  <si>
     <t>If you have access to a safe 2nd gold it can be good to go heimdall and spam einheri</t>
   </si>
   <si>
@@ -846,6 +837,15 @@
   </si>
   <si>
     <t>https://youtu.be/kdWf_uQ3xgw?si=DCtXz05A6b4IafTj&amp;t=437</t>
+  </si>
+  <si>
+    <t>OUTDATED - Water 2 TC FH build (Anatolia) - By Kosis</t>
+  </si>
+  <si>
+    <t>OUTDATED - Water FH build (Anatolia) - By Kosis</t>
+  </si>
+  <si>
+    <t>OUTDATED - Eco upgrades - By Looki</t>
   </si>
 </sst>
 </file>
@@ -1228,8 +1228,8 @@
   </sheetPr>
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1242,7 +1242,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -1550,7 +1550,7 @@
     </row>
     <row r="31" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="13" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B31" s="14"/>
     </row>
@@ -1579,14 +1579,14 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -1870,7 +1870,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1890,9 +1890,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96BD61D0-96A0-4CAD-92AE-2E0728EDFD97}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1903,7 +1901,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1921,7 +1919,7 @@
         <v>84</v>
       </c>
       <c r="B4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C4" t="s">
         <v>85</v>
@@ -2004,10 +2002,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B15" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/assets/BOs/Loki.xlsx
+++ b/assets/BOs/Loki.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\doc\coding\DoD\DeitiesOfDeath\public\assets\BOs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{339AAE67-3417-4BF1-8AB3-D0F52FD3A0B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A93462EC-99A5-4429-8A08-52178F94096D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Blad1" sheetId="1" r:id="rId1"/>
-    <sheet name="Feuil1" sheetId="2" r:id="rId2"/>
-    <sheet name="Feuil2" sheetId="3" r:id="rId3"/>
+    <sheet name="Feuil3" sheetId="4" r:id="rId1"/>
+    <sheet name="Blad1" sheetId="1" r:id="rId2"/>
+    <sheet name="Feuil1" sheetId="2" r:id="rId3"/>
+    <sheet name="Feuil2" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="136">
   <si>
     <t>Archaic</t>
   </si>
@@ -846,13 +847,407 @@
   </si>
   <si>
     <t>OUTDATED - Eco upgrades - By Looki</t>
+  </si>
+  <si>
+    <t>Food / Wood / Gold / Favor</t>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / 0 / 0 / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>Initial 2 gatherers + ox cart to food
+1 gatherer makes an ox cart an goes to food</t>
+  </si>
+  <si>
+    <t>The new Ox Cart goes to gold</t>
+  </si>
+  <si>
+    <t>Research Pickaxe</t>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / 0 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>1 dwarf to gold</t>
+  </si>
+  <si>
+    <r>
+      <t>3 /</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / 1 / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>make an Ox cart when you have 25 wood</t>
+  </si>
+  <si>
+    <r>
+      <t>3 /</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">2 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / 0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> /</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2 / 2 / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>Research Handaxe</t>
+  </si>
+  <si>
+    <r>
+      <t>6 /</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">2 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / 0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> /</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2 / 3 / 0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>7 /</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / 3 / 0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>7 /</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">4 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>Advance (3.36)</t>
+  </si>
+  <si>
+    <r>
+      <t>7 /</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4 / 4 / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>Start training Hersir</t>
+  </si>
+  <si>
+    <t>Classical (4.36)</t>
+  </si>
+  <si>
+    <t>Add a few dwarves to gold</t>
+  </si>
+  <si>
+    <t>Early Eco ups - by Husksuppe</t>
+  </si>
+  <si>
+    <t>2 gatherers to wood</t>
+  </si>
+  <si>
+    <t>3 gatherers to food</t>
+  </si>
+  <si>
+    <t>1 gatherer to food</t>
+  </si>
+  <si>
+    <t>Berserk builds a House</t>
+  </si>
+  <si>
+    <t>Berserk builds a Temple</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -943,8 +1338,46 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -969,8 +1402,20 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -978,11 +1423,63 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1007,6 +1504,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1222,6 +1746,320 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0A2FD3A-98FA-48E2-B718-385D16C53A1A}">
+  <dimension ref="A1:H38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="24"/>
+    </row>
+    <row r="2" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="27"/>
+    </row>
+    <row r="3" spans="1:4" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+    </row>
+    <row r="4" spans="1:4" ht="129.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+    </row>
+    <row r="6" spans="1:4" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="D6" s="20"/>
+    </row>
+    <row r="7" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+    </row>
+    <row r="8" spans="1:4" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="C8" s="20"/>
+      <c r="D8" s="19" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="D9" s="20"/>
+    </row>
+    <row r="10" spans="1:4" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="D10" s="20"/>
+    </row>
+    <row r="11" spans="1:4" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+    </row>
+    <row r="12" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+    </row>
+    <row r="13" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="27"/>
+    </row>
+    <row r="14" spans="1:4" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+    </row>
+    <row r="15" spans="1:4" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="B15" s="20"/>
+      <c r="C15" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="27"/>
+    </row>
+    <row r="17" spans="1:8" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+    </row>
+    <row r="18" spans="1:8" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+    </row>
+    <row r="20" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E21" s="22"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="24"/>
+    </row>
+    <row r="22" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E22" s="25"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="27"/>
+    </row>
+    <row r="23" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E23" s="19"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E24" s="21"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E25" s="21"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+    </row>
+    <row r="26" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="20"/>
+    </row>
+    <row r="27" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E28" s="21"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="19"/>
+    </row>
+    <row r="29" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="20"/>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E30" s="21"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="20"/>
+    </row>
+    <row r="31" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+    </row>
+    <row r="32" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+    </row>
+    <row r="33" spans="5:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E33" s="25"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="27"/>
+    </row>
+    <row r="34" spans="5:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E34" s="19"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+    </row>
+    <row r="35" spans="5:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E35" s="19"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+    </row>
+    <row r="36" spans="5:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E36" s="25"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="27"/>
+    </row>
+    <row r="37" spans="5:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E37" s="19"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+    </row>
+    <row r="38" spans="5:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E33:H33"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A16:D16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -1574,7 +2412,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE912F72-140E-48EF-8F53-4729AA2845B1}">
   <dimension ref="A1:D28"/>
   <sheetViews>
@@ -1886,11 +2724,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96BD61D0-96A0-4CAD-92AE-2E0728EDFD97}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>

--- a/assets/BOs/Loki.xlsx
+++ b/assets/BOs/Loki.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\doc\coding\DoD\DeitiesOfDeath\public\assets\BOs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A93462EC-99A5-4429-8A08-52178F94096D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23D5B8F6-86D1-41D4-A98A-7AA6638D6A9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="137">
   <si>
     <t>Archaic</t>
   </si>
@@ -1241,13 +1241,16 @@
   </si>
   <si>
     <t>Berserk builds a Temple</t>
+  </si>
+  <si>
+    <t>https://youtu.be/wI9wAv6wNrA?si=oJooFWpWRaR7Ed76&amp;t=1395</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1376,6 +1379,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1476,10 +1487,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1498,13 +1510,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1532,8 +1537,17 @@
     <xf numFmtId="0" fontId="16" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1750,299 +1764,304 @@
   <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="24"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="21"/>
     </row>
     <row r="2" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="27"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="24"/>
     </row>
     <row r="3" spans="1:4" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
     </row>
     <row r="4" spans="1:4" ht="129.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="16" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
     </row>
     <row r="6" spans="1:4" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="D6" s="20"/>
+      <c r="D6" s="17"/>
     </row>
     <row r="7" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
     </row>
     <row r="8" spans="1:4" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="19" t="s">
+      <c r="C8" s="17"/>
+      <c r="D8" s="16" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="D9" s="20"/>
+      <c r="D9" s="17"/>
     </row>
     <row r="10" spans="1:4" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="D10" s="20"/>
+      <c r="D10" s="17"/>
     </row>
     <row r="11" spans="1:4" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
     </row>
     <row r="12" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
     </row>
     <row r="13" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="27"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="24"/>
     </row>
     <row r="14" spans="1:4" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
     </row>
     <row r="15" spans="1:4" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="B15" s="20"/>
-      <c r="C15" s="19" t="s">
+      <c r="B15" s="17"/>
+      <c r="C15" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="16" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="27"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="24"/>
     </row>
     <row r="17" spans="1:8" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
     </row>
     <row r="18" spans="1:8" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="28" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="20" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E21" s="22"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="24"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="21"/>
     </row>
     <row r="22" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E22" s="25"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="27"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="24"/>
     </row>
     <row r="23" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E23" s="19"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
     </row>
     <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E24" s="21"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
     </row>
     <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E25" s="21"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
     </row>
     <row r="26" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="20"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="17"/>
     </row>
     <row r="27" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E28" s="21"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="19"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="16"/>
     </row>
     <row r="29" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="20"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="17"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E30" s="21"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="20"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="17"/>
     </row>
     <row r="31" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
     </row>
     <row r="32" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
     </row>
     <row r="33" spans="5:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E33" s="25"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="27"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="24"/>
     </row>
     <row r="34" spans="5:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E34" s="19"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="20"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
     </row>
     <row r="35" spans="5:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E35" s="19"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
     </row>
     <row r="36" spans="5:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E36" s="25"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="27"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="24"/>
     </row>
     <row r="37" spans="5:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E37" s="19"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
     </row>
     <row r="38" spans="5:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2055,6 +2074,9 @@
     <mergeCell ref="A13:D13"/>
     <mergeCell ref="A16:D16"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A19" r:id="rId1" tooltip="https://youtu.be/wI9wAv6wNrA?si=oJooFWpWRaR7Ed76&amp;t=1395" xr:uid="{FF23048F-1971-4153-A004-B32A18BE2DA3}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2079,20 +2101,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
     </row>
     <row r="3" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -2224,12 +2246,12 @@
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
     </row>
     <row r="16" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
@@ -2264,12 +2286,12 @@
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
     </row>
     <row r="20" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
@@ -2308,12 +2330,12 @@
       <c r="D22" s="6"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
@@ -2335,12 +2357,12 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
     </row>
     <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
@@ -2393,10 +2415,10 @@
       <c r="B31" s="14"/>
     </row>
     <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="17"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
+      <c r="A37" s="26"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2423,20 +2445,20 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
     </row>
     <row r="3" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -2558,12 +2580,12 @@
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
     </row>
     <row r="15" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
@@ -2586,12 +2608,12 @@
       <c r="D16" s="1"/>
     </row>
     <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
     </row>
     <row r="18" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
@@ -2620,12 +2642,12 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
     </row>
     <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
@@ -2647,12 +2669,12 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
     </row>
     <row r="24" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">

--- a/assets/BOs/Loki.xlsx
+++ b/assets/BOs/Loki.xlsx
@@ -1,29 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\doc\coding\DoD\DeitiesOfDeath\public\assets\BOs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23D5B8F6-86D1-41D4-A98A-7AA6638D6A9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC8F76FD-5623-4FBC-8DA8-DFB26973213A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil3" sheetId="4" r:id="rId1"/>
-    <sheet name="Blad1" sheetId="1" r:id="rId2"/>
-    <sheet name="Feuil1" sheetId="2" r:id="rId3"/>
-    <sheet name="Feuil2" sheetId="3" r:id="rId4"/>
+    <sheet name="Feuil4" sheetId="5" r:id="rId2"/>
+    <sheet name="Feuil5" sheetId="6" r:id="rId3"/>
+    <sheet name="Feuil1" sheetId="2" r:id="rId4"/>
+    <sheet name="Feuil6" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="151">
   <si>
     <t>Archaic</t>
   </si>
@@ -207,9 +208,6 @@
     <t>1 to Food</t>
   </si>
   <si>
-    <t>Berserk Builds Dock, then goes base for Temple</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -232,174 +230,18 @@
     <t>3 Dwarf to Gold</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> / </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> / 6</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">1 to Wood
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>Vills transition:
-1 Food to Wood</t>
-    </r>
-  </si>
-  <si>
     <t>Berserk Builds Temple when enough resources</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">3 / </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> / 6</t>
-    </r>
-  </si>
-  <si>
     <t>1 to Wood</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">3 / 8 / </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">  + (+/- 8 FS)</t>
-    </r>
-  </si>
-  <si>
     <t>Advance - Heimdall (3.45)</t>
   </si>
   <si>
-    <t>A Food villagers kills Chickens/Goats/other untill 20 Favor</t>
-  </si>
-  <si>
     <t>Berserk Builds House</t>
   </si>
   <si>
-    <t>Make 3 Hersir</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">0 / </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>11</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> / </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>7</t>
-    </r>
-  </si>
-  <si>
-    <t>Vills transition:
-3 Food vills to Wood (+Build Ox Cart)</t>
-  </si>
-  <si>
     <t>Berserk Builds Dock</t>
   </si>
   <si>
@@ -409,146 +251,19 @@
     <t xml:space="preserve">Food / Wood / Gold </t>
   </si>
   <si>
-    <t>Build Houses when needed</t>
-  </si>
-  <si>
     <t>Research Rigsthula</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">0 / 11 / </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>15</t>
-    </r>
-  </si>
-  <si>
-    <t>8 Dwarf to Gold</t>
-  </si>
-  <si>
-    <t>Hersirs Builds 3 Docks (6 total)</t>
-  </si>
-  <si>
-    <t>Research Pickaxe + Safeguard</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">0 / 11 / </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">15 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>+ (+/- 18 FS)</t>
-    </r>
-  </si>
-  <si>
-    <t>Make Market in Trade Position</t>
-  </si>
-  <si>
-    <t>Advance - (Bragi) (6.45)</t>
-  </si>
-  <si>
     <t>Build Great Hall</t>
   </si>
   <si>
     <t>Make Hersirs</t>
   </si>
   <si>
-    <t>Build 2nd TC (7.30 min)</t>
-  </si>
-  <si>
-    <t>Pre-queue Hand Axe  + Purse Seine</t>
-  </si>
-  <si>
-    <t>Heroic (7.45, thanks to Rigshtula)</t>
-  </si>
-  <si>
-    <t>Start Trade</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> / 11 / </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">15 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>+ (+/- 18 FS)</t>
-    </r>
-  </si>
-  <si>
     <t>2 to Food</t>
   </si>
   <si>
-    <t>Pre-queue Heavy Warship + Bow Saw</t>
-  </si>
-  <si>
-    <t>TC1</t>
-  </si>
-  <si>
-    <t>TC2</t>
-  </si>
-  <si>
     <t>Make Heavy Longboats</t>
-  </si>
-  <si>
-    <t>3 Food</t>
-  </si>
-  <si>
-    <t>3 Wood (+ build Ox Cart)</t>
   </si>
   <si>
     <t>2 to Food (+builds Ox cart)</t>
@@ -774,79 +489,10 @@
     <t>Advance</t>
   </si>
   <si>
-    <t>1 | 2 | 0</t>
-  </si>
-  <si>
-    <t>when tree at 180 wood -&gt; vils go to food</t>
-  </si>
-  <si>
-    <t>3 | 0 | 1</t>
-  </si>
-  <si>
-    <t>1 dwarf gold</t>
-  </si>
-  <si>
-    <t>3 | 2 | 1</t>
-  </si>
-  <si>
-    <t>2 vils oxcart -&gt; wood</t>
-  </si>
-  <si>
-    <t>3 | 2 | 2</t>
-  </si>
-  <si>
-    <t>Instantly research pickaxe</t>
-  </si>
-  <si>
-    <t>5 | 2 | 2</t>
-  </si>
-  <si>
-    <t>2 vils hunt</t>
-  </si>
-  <si>
-    <t>5 | 2 | 3</t>
-  </si>
-  <si>
-    <t>7 | 2 | 3</t>
-  </si>
-  <si>
-    <t>handaxe</t>
-  </si>
-  <si>
-    <t>7 | 5 | 3</t>
-  </si>
-  <si>
-    <t>7 | 5 | 5</t>
-  </si>
-  <si>
-    <t>2 dwarf gold</t>
-  </si>
-  <si>
-    <t>3 vils wood</t>
-  </si>
-  <si>
-    <t>If you have access to a safe 2nd gold it can be good to go heimdall and spam einheri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Initial vils : 1 build oxcart (send it to gold) -&gt; hunt / 2 wood  </t>
-  </si>
-  <si>
-    <t>remark :</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=kdWf_uQ3xgw</t>
   </si>
   <si>
-    <t>https://youtu.be/kdWf_uQ3xgw?si=DCtXz05A6b4IafTj&amp;t=437</t>
-  </si>
-  <si>
-    <t>OUTDATED - Water 2 TC FH build (Anatolia) - By Kosis</t>
-  </si>
-  <si>
     <t>OUTDATED - Water FH build (Anatolia) - By Kosis</t>
-  </si>
-  <si>
-    <t>OUTDATED - Eco upgrades - By Looki</t>
   </si>
   <si>
     <t>Food / Wood / Gold / Favor</t>
@@ -1244,17 +890,936 @@
   </si>
   <si>
     <t>https://youtu.be/wI9wAv6wNrA?si=oJooFWpWRaR7Ed76&amp;t=1395</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 0 / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>Initial vills: 
+2 Vills + Ox Cart on Wood
+1 Vill build Ox Cart (Ox Cart to Gold), then builds a dock, then back to Wood</t>
+  </si>
+  <si>
+    <t>Auto-Queue Fishing Ships</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 3 / 0 / 0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 / 3 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/ 3 / 1 / 0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 1 / 0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2 / 4 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>Build a House, Force Drop Wood for a new Fishing Ships for no idle time</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 2 / 0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 5 / 2 / 0 </t>
+    </r>
+  </si>
+  <si>
+    <t>Aim for 7 Fishing Ships, then Temple before 3.06,
+one extra boat after temple (stop auto-queue Fishing Ships)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3 / 5 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 5 / 3 / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>Advance (3.36) - Freya</t>
+  </si>
+  <si>
+    <t>Make a 2nd Dock</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">9  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/ 3 / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>Vills transition:
+4 Food to Wood</t>
+  </si>
+  <si>
+    <t>Pre-queue Hand Axe + Pickaxe</t>
+  </si>
+  <si>
+    <t>Build 1 more Fishing Ship (9 in total)</t>
+  </si>
+  <si>
+    <t>Classical</t>
+  </si>
+  <si>
+    <t>Spam War Boats</t>
+  </si>
+  <si>
+    <t>Send Valkery to enemy Woodline and cast Forest Fire
+(Goal = villager idle time)</t>
+  </si>
+  <si>
+    <t>Focus: Fight the water defensively. 
+If needed, you can skip 1 War Boat to build a Longhouse/ Great Hall</t>
+  </si>
+  <si>
+    <t>Standard Water - Léonce</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> / 0 / 0 / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>Initial vills
+Initial Ox Cart to Gold
+3 to Food (+ make Ox Cart)</t>
+  </si>
+  <si>
+    <t>Berserk goes to enemy, cast Spy on villager,
+come back to base + Make House when needed</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3 / 0 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> / 0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> / 1 / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>2 to Wood (+ make Ox Cart)</t>
+  </si>
+  <si>
+    <t>Try to share with Food or Gold Ox Cart, 
+if you can't use straggler tree, until you can afford Ox Cart</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3 / 2 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> / 0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">5 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>/ 2 / 2 / 0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5 / 2 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> / 0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> / 2 / 3 / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>Berserk builds Temple once enough resources</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">7 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> / 3 / 0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">7 / 4 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>1 TC Early Pickaxe + Classic Fight - By Jollyman</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> / 1 / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>1 to Wood  (+ make Ox Cart)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> / 1 / 1 / 0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4 / 1 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> / 0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4 / 1 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>1 Gatherer to Gold</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> / 1 / 3 / 0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5 / 1 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> / 0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> /</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>Vill transition:
+- 1 Gold Gatherer to Wood</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> / 3 / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>4 to Wood</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t xml:space="preserve"> / 3 / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>Vill transition:
+- 1 Food to Wood (but on the way kill all the chickens for Favor)</t>
+  </si>
+  <si>
+    <t>Make 3 Hersirs (Must get ot on time, force drop if needed)</t>
+  </si>
+  <si>
+    <t>Build a house</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5 / 7 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t xml:space="preserve"> / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>Research Safeguard</t>
+  </si>
+  <si>
+    <t>Villagers to Food (Hunt&gt; Chickens&gt;Berries) 
+(Dwarf on Gold if TC is Idle)</t>
+  </si>
+  <si>
+    <t>Build Barracks by TC (make some Beserks)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Make 2nd TC when Safeguard is researched -
+&gt; TC should be up at 5:45 </t>
+  </si>
+  <si>
+    <t>Kill hunt for 20 Favor and get Rigsthula,
+you should get this at around 6:30</t>
+  </si>
+  <si>
+    <t>Both TC make villager to Food untill 12-15, after that:
+1 TC to Wood
+2nd TC to Gold (Auto-qeue Dwarf+Villager)
+You will have to balance this on what units and upgrades you need for each game,</t>
+  </si>
+  <si>
+    <t>2 TC Heimdall - Jollyman</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="40">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1313,31 +1878,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
@@ -1387,8 +1934,142 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Liberation Sans"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Liberation Sans"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="4"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Inherit"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1423,6 +2104,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -1487,68 +2174,159 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="6">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
+    <cellStyle name="Lien hypertexte 3" xfId="5" xr:uid="{44848195-F8FB-484D-92D0-0A4C4ADAD7A1}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{7C1B62E7-F248-415F-BEB7-5D77FD1DC586}"/>
+    <cellStyle name="Standaard 2" xfId="4" xr:uid="{2CAE82DF-CE21-436F-83B3-DDFB6967187D}"/>
+    <cellStyle name="Standaard 3" xfId="3" xr:uid="{B39360D2-A907-4193-800D-C68217EC4CBA}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1763,305 +2541,305 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0A2FD3A-98FA-48E2-B718-385D16C53A1A}">
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="21"/>
-    </row>
-    <row r="2" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+    <row r="1" spans="1:4" ht="18.75" thickBot="1">
+      <c r="A1" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="37"/>
+    </row>
+    <row r="2" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A2" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="24"/>
-    </row>
-    <row r="3" spans="1:4" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-    </row>
-    <row r="4" spans="1:4" ht="129.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-    </row>
-    <row r="6" spans="1:4" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="D6" s="17"/>
-    </row>
-    <row r="7" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-    </row>
-    <row r="8" spans="1:4" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="16" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="D9" s="17"/>
-    </row>
-    <row r="10" spans="1:4" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="D10" s="17"/>
-    </row>
-    <row r="11" spans="1:4" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-    </row>
-    <row r="12" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-    </row>
-    <row r="13" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="24"/>
-    </row>
-    <row r="14" spans="1:4" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-    </row>
-    <row r="15" spans="1:4" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="24"/>
-    </row>
-    <row r="17" spans="1:8" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-    </row>
-    <row r="18" spans="1:8" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="28" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E21" s="19"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="21"/>
-    </row>
-    <row r="22" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E22" s="22"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="24"/>
-    </row>
-    <row r="23" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E23" s="16"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E24" s="18"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E25" s="18"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-    </row>
-    <row r="26" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="17"/>
-    </row>
-    <row r="27" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-    </row>
-    <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E28" s="18"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="16"/>
-    </row>
-    <row r="29" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="17"/>
-    </row>
-    <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E30" s="18"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="17"/>
-    </row>
-    <row r="31" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-    </row>
-    <row r="32" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-    </row>
-    <row r="33" spans="5:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E33" s="22"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="24"/>
-    </row>
-    <row r="34" spans="5:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E34" s="16"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-    </row>
-    <row r="35" spans="5:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E35" s="16"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
-    </row>
-    <row r="36" spans="5:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E36" s="22"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="24"/>
-    </row>
-    <row r="37" spans="5:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E37" s="16"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-    </row>
-    <row r="38" spans="5:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="40"/>
+    </row>
+    <row r="3" spans="1:4" ht="57.75" thickBot="1">
+      <c r="A3" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+    </row>
+    <row r="4" spans="1:4" ht="129.75" thickBot="1">
+      <c r="A4" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30" thickBot="1">
+      <c r="A5" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+    </row>
+    <row r="6" spans="1:4" ht="72.75" thickBot="1">
+      <c r="A6" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="10"/>
+    </row>
+    <row r="7" spans="1:4" ht="30" thickBot="1">
+      <c r="A7" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="1:4" ht="44.25" thickBot="1">
+      <c r="A8" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="44.25" thickBot="1">
+      <c r="A9" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" s="10"/>
+    </row>
+    <row r="10" spans="1:4" ht="44.25" thickBot="1">
+      <c r="A10" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" s="10"/>
+    </row>
+    <row r="11" spans="1:4" ht="44.25" thickBot="1">
+      <c r="A11" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+    </row>
+    <row r="12" spans="1:4" ht="30" thickBot="1">
+      <c r="A12" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+    </row>
+    <row r="13" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A13" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="40"/>
+    </row>
+    <row r="14" spans="1:4" ht="57.75" thickBot="1">
+      <c r="A14" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+    </row>
+    <row r="15" spans="1:4" ht="44.25" thickBot="1">
+      <c r="A15" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A16" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="40"/>
+    </row>
+    <row r="17" spans="1:8" ht="57.75" thickBot="1">
+      <c r="A17" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+    </row>
+    <row r="18" spans="1:8" ht="44.25" thickBot="1">
+      <c r="A18" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="13.5" thickBot="1"/>
+    <row r="21" spans="1:8" ht="18.75" thickBot="1">
+      <c r="E21" s="35"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="37"/>
+    </row>
+    <row r="22" spans="1:8" ht="16.5" thickBot="1">
+      <c r="E22" s="38"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="40"/>
+    </row>
+    <row r="23" spans="1:8" ht="15" thickBot="1">
+      <c r="E23" s="9"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" thickBot="1">
+      <c r="E24" s="11"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" thickBot="1">
+      <c r="E25" s="11"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+    </row>
+    <row r="26" spans="1:8" ht="15" thickBot="1">
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="10"/>
+    </row>
+    <row r="27" spans="1:8" ht="15" thickBot="1">
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" thickBot="1">
+      <c r="E28" s="11"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="9"/>
+    </row>
+    <row r="29" spans="1:8" ht="15" thickBot="1">
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="10"/>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" thickBot="1">
+      <c r="E30" s="11"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="10"/>
+    </row>
+    <row r="31" spans="1:8" ht="15" thickBot="1">
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+    </row>
+    <row r="32" spans="1:8" ht="15" thickBot="1">
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+    </row>
+    <row r="33" spans="5:8" ht="16.5" thickBot="1">
+      <c r="E33" s="38"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="40"/>
+    </row>
+    <row r="34" spans="5:8" ht="15" thickBot="1">
+      <c r="E34" s="9"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+    </row>
+    <row r="35" spans="5:8" ht="15" thickBot="1">
+      <c r="E35" s="9"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+    </row>
+    <row r="36" spans="5:8" ht="16.5" thickBot="1">
+      <c r="E36" s="38"/>
+      <c r="F36" s="39"/>
+      <c r="G36" s="39"/>
+      <c r="H36" s="40"/>
+    </row>
+    <row r="37" spans="5:8" ht="15" thickBot="1">
+      <c r="E37" s="9"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+    </row>
+    <row r="38" spans="5:8" ht="15" thickBot="1">
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2082,359 +2860,424 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:D37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{801EE067-6144-4E08-B3A1-D134A6E65E1F}">
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="28" customWidth="1"/>
-    <col min="2" max="2" width="50.42578125" customWidth="1"/>
-    <col min="3" max="3" width="62.5703125" customWidth="1"/>
-    <col min="4" max="4" width="50" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:4" ht="18">
+      <c r="A1" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75">
+      <c r="A2" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+    </row>
+    <row r="3" spans="1:4" ht="14.25">
+      <c r="A3" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+    </row>
+    <row r="4" spans="1:4" ht="171.75">
+      <c r="A4" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="17"/>
+      <c r="D4" s="16" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15">
+      <c r="A5" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="17"/>
+      <c r="D5" s="16"/>
+    </row>
+    <row r="6" spans="1:4" ht="29.25">
+      <c r="A6" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="17"/>
+      <c r="D6" s="16"/>
+    </row>
+    <row r="7" spans="1:4" ht="15">
+      <c r="A7" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="17"/>
+      <c r="D7" s="16"/>
+    </row>
+    <row r="8" spans="1:4" ht="15">
+      <c r="A8" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+    </row>
+    <row r="9" spans="1:4" ht="15">
+      <c r="A9" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" s="14"/>
+    </row>
+    <row r="10" spans="1:4" ht="15">
+      <c r="A10" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+    </row>
+    <row r="11" spans="1:4" ht="186">
+      <c r="A11" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15">
+      <c r="A12" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="17"/>
+      <c r="D12" s="14"/>
+    </row>
+    <row r="13" spans="1:4" ht="15">
+      <c r="A13" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+    </row>
+    <row r="14" spans="1:4" ht="15.75">
+      <c r="A14" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+    </row>
+    <row r="15" spans="1:4" ht="15.75">
+      <c r="A15" s="21"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="D15" s="13"/>
+    </row>
+    <row r="16" spans="1:4" ht="72">
+      <c r="A16" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="D16" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-    </row>
-    <row r="3" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-    </row>
-    <row r="16" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A18" s="5"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-    </row>
-    <row r="20" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" s="6"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="C25" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-    </row>
-    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="7"/>
-    </row>
-    <row r="31" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="B31" s="14"/>
-    </row>
-    <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="26"/>
-      <c r="B37" s="26"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
+    </row>
+    <row r="17" spans="1:4" ht="15.75">
+      <c r="A17" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+    </row>
+    <row r="18" spans="1:4" ht="128.25">
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="171">
+      <c r="A19" s="14"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="13"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="31"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="13"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="44"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+    </row>
+    <row r="23" spans="1:4" ht="15">
+      <c r="A23" s="32"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+    </row>
+    <row r="24" spans="1:4" ht="15">
+      <c r="A24" s="32"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+    </row>
+    <row r="25" spans="1:4" ht="15">
+      <c r="A25" s="32"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="34"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+    </row>
+    <row r="27" spans="1:4" ht="15">
+      <c r="A27" s="33"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="34"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+    </row>
+    <row r="29" spans="1:4" ht="15">
+      <c r="A29" s="33"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A37:D37"/>
+  <mergeCells count="5">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A22:D22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D08AEFC6-B74B-45CB-AA41-7EEEE77C3718}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18">
+      <c r="A1" s="48" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75">
+      <c r="A2" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+    </row>
+    <row r="3" spans="1:4" ht="15">
+      <c r="A3" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+    </row>
+    <row r="4" spans="1:4" ht="195.75">
+      <c r="A4" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" s="53" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="51" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75">
+      <c r="A5" s="50" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="51"/>
+      <c r="D5" s="50"/>
+    </row>
+    <row r="6" spans="1:4" ht="180.75">
+      <c r="A6" s="50" t="s">
+        <v>116</v>
+      </c>
+      <c r="B6" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6" s="51" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6" s="50"/>
+    </row>
+    <row r="7" spans="1:4" ht="15.75">
+      <c r="A7" s="50" t="s">
+        <v>119</v>
+      </c>
+      <c r="B7" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="52"/>
+      <c r="D7" s="50"/>
+    </row>
+    <row r="8" spans="1:4" ht="15.75">
+      <c r="A8" s="50" t="s">
+        <v>120</v>
+      </c>
+      <c r="B8" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="52"/>
+      <c r="D8" s="50"/>
+    </row>
+    <row r="9" spans="1:4" ht="15.75">
+      <c r="A9" s="50" t="s">
+        <v>121</v>
+      </c>
+      <c r="B9" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="52"/>
+      <c r="D9" s="50"/>
+    </row>
+    <row r="10" spans="1:4" ht="15.75">
+      <c r="A10" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="B10" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="52"/>
+      <c r="D10" s="50" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75">
+      <c r="A11" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="B11" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="52"/>
+      <c r="D11" s="50"/>
+    </row>
+    <row r="12" spans="1:4" ht="15.75">
+      <c r="A12" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="B12" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+    </row>
+    <row r="13" spans="1:4" ht="15.75">
+      <c r="A13" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="55"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A13:D13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE912F72-140E-48EF-8F53-4729AA2845B1}">
   <dimension ref="A1:D28"/>
   <sheetViews>
@@ -2442,25 +3285,25 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+    <row r="1" spans="1:4" ht="18">
+      <c r="A1" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75">
+      <c r="A2" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-    </row>
-    <row r="3" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+    </row>
+    <row r="3" spans="1:4" ht="14.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2468,7 +3311,7 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -2482,7 +3325,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -2491,7 +3334,7 @@
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -2501,7 +3344,7 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -2511,7 +3354,7 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -2523,7 +3366,7 @@
       </c>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -2531,11 +3374,11 @@
         <v>12</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -2545,33 +3388,33 @@
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="15">
       <c r="A11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="15">
       <c r="A12" s="1" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="15">
       <c r="A13" s="1" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>12</v>
@@ -2579,158 +3422,158 @@
       <c r="C13" s="3"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-    </row>
-    <row r="15" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="15.75">
+      <c r="A14" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+    </row>
+    <row r="15" spans="1:4" ht="14.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-    </row>
-    <row r="18" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="15.75">
+      <c r="A17" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="46"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+    </row>
+    <row r="18" spans="1:4" ht="14.25">
       <c r="A18" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="14.25">
+      <c r="A19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-    </row>
-    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:4" ht="15.75">
+      <c r="A20" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+    </row>
+    <row r="21" spans="1:4" ht="15">
       <c r="A21" s="5"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15">
       <c r="A22" s="5"/>
       <c r="C22" s="2" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-    </row>
-    <row r="24" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75">
+      <c r="A23" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="46"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+    </row>
+    <row r="24" spans="1:4" ht="14.25">
       <c r="A24" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="9" t="s">
-        <v>70</v>
+      <c r="C24" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15">
       <c r="A25" s="1" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15">
       <c r="A26" s="1" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15">
       <c r="A27" s="1" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>104</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -2746,131 +3589,225 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96BD61D0-96A0-4CAD-92AE-2E0728EDFD97}">
-  <dimension ref="A1:D15"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BFB1634-C96F-4A06-93D7-5CA1D3909FBD}">
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="59.140625" customWidth="1"/>
-    <col min="2" max="2" width="48.85546875" customWidth="1"/>
-    <col min="3" max="3" width="55.7109375" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="1" spans="1:4" ht="18">
+      <c r="A1" s="48" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75">
+      <c r="A2" s="45" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="B4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>88</v>
-      </c>
-      <c r="B6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>90</v>
-      </c>
-      <c r="B7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>92</v>
-      </c>
-      <c r="B8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>94</v>
-      </c>
-      <c r="B9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>95</v>
-      </c>
-      <c r="B10" t="s">
-        <v>93</v>
-      </c>
-      <c r="C10" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>97</v>
-      </c>
-      <c r="B11" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>98</v>
-      </c>
-      <c r="B12" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>103</v>
-      </c>
-      <c r="B15" t="s">
-        <v>101</v>
-      </c>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+    </row>
+    <row r="3" spans="1:4" ht="15">
+      <c r="A3" s="57" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+    </row>
+    <row r="4" spans="1:4" ht="195.75">
+      <c r="A4" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" s="58" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" s="62"/>
+      <c r="D4" s="58" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75">
+      <c r="A5" s="57" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="58"/>
+      <c r="D5" s="57"/>
+    </row>
+    <row r="6" spans="1:4" ht="180.75">
+      <c r="A6" s="57" t="s">
+        <v>127</v>
+      </c>
+      <c r="B6" s="57" t="s">
+        <v>128</v>
+      </c>
+      <c r="C6" s="58" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6" s="57"/>
+    </row>
+    <row r="7" spans="1:4" ht="15.75">
+      <c r="A7" s="57" t="s">
+        <v>129</v>
+      </c>
+      <c r="B7" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="59"/>
+      <c r="D7" s="57"/>
+    </row>
+    <row r="8" spans="1:4" ht="15.75">
+      <c r="A8" s="57" t="s">
+        <v>130</v>
+      </c>
+      <c r="B8" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="59"/>
+      <c r="D8" s="57"/>
+    </row>
+    <row r="9" spans="1:4" ht="15.75">
+      <c r="A9" s="57" t="s">
+        <v>131</v>
+      </c>
+      <c r="B9" s="57" t="s">
+        <v>132</v>
+      </c>
+      <c r="C9" s="59"/>
+      <c r="D9" s="57"/>
+    </row>
+    <row r="10" spans="1:4" ht="15.75">
+      <c r="A10" s="57" t="s">
+        <v>133</v>
+      </c>
+      <c r="B10" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="59"/>
+      <c r="D10" s="57"/>
+    </row>
+    <row r="11" spans="1:4" ht="15.75">
+      <c r="A11" s="57" t="s">
+        <v>134</v>
+      </c>
+      <c r="B11" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="59"/>
+      <c r="D11" s="57"/>
+    </row>
+    <row r="12" spans="1:4" ht="75.75">
+      <c r="A12" s="57" t="s">
+        <v>135</v>
+      </c>
+      <c r="B12" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="59" t="s">
+        <v>136</v>
+      </c>
+      <c r="D12" s="57" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75">
+      <c r="A13" s="57" t="s">
+        <v>137</v>
+      </c>
+      <c r="B13" s="57" t="s">
+        <v>138</v>
+      </c>
+      <c r="C13" s="59"/>
+      <c r="D13" s="57"/>
+    </row>
+    <row r="14" spans="1:4" ht="15.75">
+      <c r="A14" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="55"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+    </row>
+    <row r="15" spans="1:4" ht="135">
+      <c r="A15" s="63" t="s">
+        <v>139</v>
+      </c>
+      <c r="B15" s="59" t="s">
+        <v>140</v>
+      </c>
+      <c r="C15" s="61" t="s">
+        <v>141</v>
+      </c>
+      <c r="D15" s="61" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75">
+      <c r="A16" s="54" t="s">
+        <v>107</v>
+      </c>
+      <c r="B16" s="55"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="55"/>
+    </row>
+    <row r="17" spans="1:4" ht="30.75">
+      <c r="A17" s="63" t="s">
+        <v>143</v>
+      </c>
+      <c r="B17" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="61" t="s">
+        <v>144</v>
+      </c>
+      <c r="D17" s="56"/>
+    </row>
+    <row r="18" spans="1:4" ht="120">
+      <c r="A18" s="56"/>
+      <c r="B18" s="62" t="s">
+        <v>145</v>
+      </c>
+      <c r="C18" s="61" t="s">
+        <v>146</v>
+      </c>
+      <c r="D18" s="61"/>
+    </row>
+    <row r="19" spans="1:4" ht="150">
+      <c r="A19" s="56"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="62" t="s">
+        <v>147</v>
+      </c>
+      <c r="D19" s="62" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="375">
+      <c r="A20" s="65"/>
+      <c r="B20" s="62" t="s">
+        <v>149</v>
+      </c>
+      <c r="C20" s="56"/>
+      <c r="D20" s="64"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A14:D14"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/assets/BOs/Loki.xlsx
+++ b/assets/BOs/Loki.xlsx
@@ -8,23 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\doc\coding\DoD\DeitiesOfDeath\public\assets\BOs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC8F76FD-5623-4FBC-8DA8-DFB26973213A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC2FE9BA-F349-4E5E-A6ED-60D47BB76BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil3" sheetId="4" r:id="rId1"/>
-    <sheet name="Feuil4" sheetId="5" r:id="rId2"/>
-    <sheet name="Feuil5" sheetId="6" r:id="rId3"/>
-    <sheet name="Feuil1" sheetId="2" r:id="rId4"/>
-    <sheet name="Feuil6" sheetId="7" r:id="rId5"/>
+    <sheet name="Feuil8" sheetId="10" r:id="rId1"/>
+    <sheet name="Feuil3" sheetId="4" r:id="rId2"/>
+    <sheet name="Feuil4" sheetId="5" r:id="rId3"/>
+    <sheet name="Feuil5" sheetId="6" r:id="rId4"/>
+    <sheet name="Feuil1" sheetId="2" r:id="rId5"/>
+    <sheet name="Feuil6" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="174">
   <si>
     <t>Archaic</t>
   </si>
@@ -887,9 +888,6 @@
   </si>
   <si>
     <t>Berserk builds a Temple</t>
-  </si>
-  <si>
-    <t>https://youtu.be/wI9wAv6wNrA?si=oJooFWpWRaR7Ed76&amp;t=1395</t>
   </si>
   <si>
     <r>
@@ -1795,13 +1793,258 @@
   </si>
   <si>
     <t>2 TC Heimdall - Jollyman</t>
+  </si>
+  <si>
+    <t>Anti Krush/early relic build - By Husksuppe</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0 / 1 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> / 0</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">2 gatherers + ox cart to gold, 1 gatherer to straggler tree, gather 10 wood then go to hunt. </t>
+  </si>
+  <si>
+    <t>If defensive hunt, Berserk herds them into the TC. If aggressive hunt, gatherer lures it to the TC.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 0 / 2 / 0</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">3+initial wood gatherer to Food. Berserk places temple ASAP. </t>
+  </si>
+  <si>
+    <t>Autoqueue dwarves to put to gold.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">4 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> / 2 / 0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> / 1 / 2 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1 to Food. Queue a Hersir ASAP. </t>
+  </si>
+  <si>
+    <t>Hersir and Berserk should harass aggress Oracles from the Kronos player.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">7 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> / 3 / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <t>Place autoqueued gatherers onto food and dwarves onto gold. Once wood gatherer has gathered enough wood for another ox cart, place it onto food.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">8 / 0 / 4 / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <t>Advance with two dwarves.</t>
+  </si>
+  <si>
+    <t>Advance - x (2:42)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / 4 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>Take 4 food gatherers onto wood. Keep dwarves autoqueued.</t>
+  </si>
+  <si>
+    <t>Queue more Hersir from the Temple ASAP.</t>
+  </si>
+  <si>
+    <t>Classical (3:42)</t>
+  </si>
+  <si>
+    <t>4 / 4 / 5 / 2</t>
+  </si>
+  <si>
+    <t>Queue dwarves to gold until you survive the Krush.</t>
+  </si>
+  <si>
+    <t>Hersir rebuild Temple (if deconstructed) and build Great Hall. Raiding Cavalry are needed to fight Cheiroballista.</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=aqS4eU0MAGU</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="40">
+  <fonts count="45">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2067,6 +2310,40 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Inherit"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -2174,15 +2451,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2203,49 +2479,67 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="14" fontId="24" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="5"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2264,69 +2558,60 @@
     <xf numFmtId="0" fontId="15" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
-    <cellStyle name="Lien hypertexte 3" xfId="5" xr:uid="{44848195-F8FB-484D-92D0-0A4C4ADAD7A1}"/>
+  <cellStyles count="5">
+    <cellStyle name="Lien hypertexte 3" xfId="4" xr:uid="{44848195-F8FB-484D-92D0-0A4C4ADAD7A1}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="2" xr:uid="{7C1B62E7-F248-415F-BEB7-5D77FD1DC586}"/>
-    <cellStyle name="Standaard 2" xfId="4" xr:uid="{2CAE82DF-CE21-436F-83B3-DDFB6967187D}"/>
-    <cellStyle name="Standaard 3" xfId="3" xr:uid="{B39360D2-A907-4193-800D-C68217EC4CBA}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{7C1B62E7-F248-415F-BEB7-5D77FD1DC586}"/>
+    <cellStyle name="Standaard 2" xfId="3" xr:uid="{2CAE82DF-CE21-436F-83B3-DDFB6967187D}"/>
+    <cellStyle name="Standaard 3" xfId="2" xr:uid="{B39360D2-A907-4193-800D-C68217EC4CBA}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2538,6 +2823,221 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADD0D2D5-86B8-480D-8FAA-F483B95C2298}">
+  <dimension ref="A1:D27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="32.28515625" customWidth="1"/>
+    <col min="2" max="2" width="50.42578125" customWidth="1"/>
+    <col min="3" max="3" width="62.5703125" customWidth="1"/>
+    <col min="4" max="4" width="50" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18">
+      <c r="A1" s="53" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+    </row>
+    <row r="3" spans="1:4" ht="14.25">
+      <c r="A3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" ht="29.25">
+      <c r="A4" s="61" t="s">
+        <v>151</v>
+      </c>
+      <c r="B4" s="62" t="s">
+        <v>152</v>
+      </c>
+      <c r="C4" s="63" t="s">
+        <v>153</v>
+      </c>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" ht="15">
+      <c r="A5" s="61" t="s">
+        <v>154</v>
+      </c>
+      <c r="B5" s="63" t="s">
+        <v>155</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" ht="15">
+      <c r="A6" s="61" t="s">
+        <v>157</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" ht="15">
+      <c r="A7" s="61" t="s">
+        <v>158</v>
+      </c>
+      <c r="B7" s="63" t="s">
+        <v>159</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" ht="15">
+      <c r="A8" s="61" t="s">
+        <v>161</v>
+      </c>
+      <c r="B8" s="63" t="s">
+        <v>162</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" ht="14.25">
+      <c r="A9" s="61" t="s">
+        <v>163</v>
+      </c>
+      <c r="B9" s="63" t="s">
+        <v>164</v>
+      </c>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="55" t="s">
+        <v>165</v>
+      </c>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+    </row>
+    <row r="11" spans="1:4" s="1" customFormat="1" ht="14.25">
+      <c r="A11" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15">
+      <c r="A12" s="63" t="s">
+        <v>166</v>
+      </c>
+      <c r="B12" s="63" t="s">
+        <v>167</v>
+      </c>
+      <c r="C12" s="63" t="s">
+        <v>168</v>
+      </c>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" ht="14.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" ht="15">
+      <c r="A14" s="64"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="55" t="s">
+        <v>169</v>
+      </c>
+      <c r="B15" s="54"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+    </row>
+    <row r="16" spans="1:4" ht="14.25">
+      <c r="A16" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="14.25">
+      <c r="A17" s="63" t="s">
+        <v>170</v>
+      </c>
+      <c r="B17" s="65" t="s">
+        <v>171</v>
+      </c>
+      <c r="C17" s="65" t="s">
+        <v>172</v>
+      </c>
+      <c r="D17" s="66"/>
+    </row>
+    <row r="18" spans="1:4" ht="12.75">
+      <c r="C18" s="67"/>
+    </row>
+    <row r="19" spans="1:4" ht="12.75">
+      <c r="A19" s="30" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="12.75">
+      <c r="A20" s="68"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+    </row>
+    <row r="21" spans="1:4" ht="15">
+      <c r="A21" s="69"/>
+    </row>
+    <row r="22" spans="1:4" ht="15">
+      <c r="A22" s="69"/>
+    </row>
+    <row r="23" spans="1:4" ht="15">
+      <c r="A23" s="69"/>
+      <c r="B23" s="70"/>
+    </row>
+    <row r="24" spans="1:4" ht="12.75">
+      <c r="A24" s="71"/>
+    </row>
+    <row r="25" spans="1:4" ht="15">
+      <c r="A25" s="70"/>
+    </row>
+    <row r="26" spans="1:4" ht="12.75">
+      <c r="A26" s="71"/>
+    </row>
+    <row r="27" spans="1:4" ht="15">
+      <c r="A27" s="70"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A20:D20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0A2FD3A-98FA-48E2-B718-385D16C53A1A}">
   <dimension ref="A1:H38"/>
   <sheetViews>
@@ -2548,20 +3048,20 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" thickBot="1">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="37"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="45"/>
     </row>
     <row r="2" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="40"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="48"/>
     </row>
     <row r="3" spans="1:4" ht="57.75" thickBot="1">
       <c r="A3" s="9" t="s">
@@ -2674,12 +3174,12 @@
       <c r="D12" s="10"/>
     </row>
     <row r="13" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A13" s="38" t="s">
+      <c r="A13" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="40"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="48"/>
     </row>
     <row r="14" spans="1:4" ht="57.75" thickBot="1">
       <c r="A14" s="9" t="s">
@@ -2702,12 +3202,12 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="40"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="48"/>
     </row>
     <row r="17" spans="1:8" ht="57.75" thickBot="1">
       <c r="A17" s="9" t="s">
@@ -2727,23 +3227,21 @@
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
     </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="12" t="s">
-        <v>86</v>
-      </c>
+    <row r="19" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A19" s="60"/>
     </row>
     <row r="20" spans="1:8" ht="13.5" thickBot="1"/>
     <row r="21" spans="1:8" ht="18.75" thickBot="1">
-      <c r="E21" s="35"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="37"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="45"/>
     </row>
     <row r="22" spans="1:8" ht="16.5" thickBot="1">
-      <c r="E22" s="38"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="40"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="48"/>
     </row>
     <row r="23" spans="1:8" ht="15" thickBot="1">
       <c r="E23" s="9"/>
@@ -2806,10 +3304,10 @@
       <c r="H32" s="10"/>
     </row>
     <row r="33" spans="5:8" ht="16.5" thickBot="1">
-      <c r="E33" s="38"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="40"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="47"/>
+      <c r="H33" s="48"/>
     </row>
     <row r="34" spans="5:8" ht="15" thickBot="1">
       <c r="E34" s="9"/>
@@ -2824,10 +3322,10 @@
       <c r="H35" s="9"/>
     </row>
     <row r="36" spans="5:8" ht="16.5" thickBot="1">
-      <c r="E36" s="38"/>
-      <c r="F36" s="39"/>
-      <c r="G36" s="39"/>
-      <c r="H36" s="40"/>
+      <c r="E36" s="46"/>
+      <c r="F36" s="47"/>
+      <c r="G36" s="47"/>
+      <c r="H36" s="48"/>
     </row>
     <row r="37" spans="5:8" ht="15" thickBot="1">
       <c r="E37" s="9"/>
@@ -2852,14 +3350,11 @@
     <mergeCell ref="A13:D13"/>
     <mergeCell ref="A16:D16"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A19" r:id="rId1" tooltip="https://youtu.be/wI9wAv6wNrA?si=oJooFWpWRaR7Ed76&amp;t=1395" xr:uid="{FF23048F-1971-4153-A004-B32A18BE2DA3}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{801EE067-6144-4E08-B3A1-D134A6E65E1F}">
   <dimension ref="A1:D29"/>
   <sheetViews>
@@ -2870,250 +3365,250 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:4" ht="18">
-      <c r="A1" s="41" t="s">
-        <v>111</v>
-      </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
+      <c r="A1" s="49" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
     </row>
     <row r="2" spans="1:4" ht="15.75">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
     </row>
     <row r="3" spans="1:4" ht="14.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
     </row>
     <row r="4" spans="1:4" ht="171.75">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="C4" s="16"/>
+      <c r="D4" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="16" t="s">
+    </row>
+    <row r="5" spans="1:4" ht="15">
+      <c r="A5" s="14" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="15">
-      <c r="A5" s="15" t="s">
+      <c r="B5" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="15"/>
+    </row>
+    <row r="6" spans="1:4" ht="29.25">
+      <c r="A6" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B6" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="15"/>
+    </row>
+    <row r="7" spans="1:4" ht="15">
+      <c r="A7" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="16"/>
-    </row>
-    <row r="6" spans="1:4" ht="29.25">
-      <c r="A6" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="B6" s="16" t="s">
+      <c r="C7" s="16"/>
+      <c r="D7" s="15"/>
+    </row>
+    <row r="8" spans="1:4" ht="15">
+      <c r="A8" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+    </row>
+    <row r="9" spans="1:4" ht="15">
+      <c r="A9" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B9" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="16"/>
-    </row>
-    <row r="7" spans="1:4" ht="15">
-      <c r="A7" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="B7" s="16" t="s">
+      <c r="C9" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" s="13"/>
+    </row>
+    <row r="10" spans="1:4" ht="15">
+      <c r="A10" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+    </row>
+    <row r="11" spans="1:4" ht="186">
+      <c r="A11" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B11" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="16"/>
-    </row>
-    <row r="8" spans="1:4" ht="15">
-      <c r="A8" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-    </row>
-    <row r="9" spans="1:4" ht="15">
-      <c r="A9" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="B9" s="14" t="s">
+      <c r="C11" s="13"/>
+      <c r="D11" s="15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15">
+      <c r="A12" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="D9" s="14"/>
-    </row>
-    <row r="10" spans="1:4" ht="15">
-      <c r="A10" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-    </row>
-    <row r="11" spans="1:4" ht="186">
-      <c r="A11" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="B11" s="19" t="s">
+      <c r="C12" s="16"/>
+      <c r="D12" s="13"/>
+    </row>
+    <row r="13" spans="1:4" ht="15">
+      <c r="A13" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="B13" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="16" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15">
-      <c r="A12" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="14"/>
-    </row>
-    <row r="13" spans="1:4" ht="15">
-      <c r="A13" s="20" t="s">
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+    </row>
+    <row r="14" spans="1:4" ht="15.75">
+      <c r="A14" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="B13" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-    </row>
-    <row r="14" spans="1:4" ht="15.75">
-      <c r="A14" s="43" t="s">
+      <c r="B14" s="50"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+    </row>
+    <row r="15" spans="1:4" ht="15.75">
+      <c r="A15" s="20"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-    </row>
-    <row r="15" spans="1:4" ht="15.75">
-      <c r="A15" s="21"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="22" t="s">
+      <c r="D15" s="12"/>
+    </row>
+    <row r="16" spans="1:4" ht="72">
+      <c r="A16" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="D15" s="13"/>
-    </row>
-    <row r="16" spans="1:4" ht="72">
-      <c r="A16" s="23" t="s">
+      <c r="B16" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="C16" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="D16" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="D16" s="26" t="s">
+    </row>
+    <row r="17" spans="1:4" ht="15.75">
+      <c r="A17" s="51" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75">
-      <c r="A17" s="43" t="s">
+      <c r="B17" s="50"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+    </row>
+    <row r="18" spans="1:4" ht="128.25">
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="B17" s="42"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-    </row>
-    <row r="18" spans="1:4" ht="128.25">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="27" t="s">
+      <c r="D18" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="D18" s="28" t="s">
+    </row>
+    <row r="19" spans="1:4" ht="171">
+      <c r="A19" s="13"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="15" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="171">
-      <c r="A19" s="14"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="16" t="s">
-        <v>110</v>
-      </c>
-    </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="13"/>
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="12"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="31"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="13"/>
+      <c r="A21" s="30"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="12"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="44"/>
-      <c r="B22" s="42"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="42"/>
+      <c r="A22" s="52"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
     </row>
     <row r="23" spans="1:4" ht="15">
-      <c r="A23" s="32"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
+      <c r="A23" s="31"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
     </row>
     <row r="24" spans="1:4" ht="15">
-      <c r="A24" s="32"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
+      <c r="A24" s="31"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
     </row>
     <row r="25" spans="1:4" ht="15">
-      <c r="A25" s="32"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
+      <c r="A25" s="31"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="34"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
+      <c r="A26" s="33"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
     </row>
     <row r="27" spans="1:4" ht="15">
-      <c r="A27" s="33"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
+      <c r="A27" s="32"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="34"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
+      <c r="A28" s="33"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
     </row>
     <row r="29" spans="1:4" ht="15">
-      <c r="A29" s="33"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
+      <c r="A29" s="32"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3127,7 +3622,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D08AEFC6-B74B-45CB-AA41-7EEEE77C3718}">
   <dimension ref="A1:D13"/>
   <sheetViews>
@@ -3138,134 +3633,134 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:4" ht="18">
-      <c r="A1" s="48" t="s">
-        <v>126</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
+      <c r="A1" s="53" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
     </row>
     <row r="2" spans="1:4" ht="15.75">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
     </row>
     <row r="3" spans="1:4" ht="15">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
     </row>
     <row r="4" spans="1:4" ht="195.75">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="C4" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="C4" s="53" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" s="51" t="s">
+    </row>
+    <row r="5" spans="1:4" ht="15.75">
+      <c r="A5" s="34" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75">
-      <c r="A5" s="50" t="s">
+      <c r="B5" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="35"/>
+      <c r="D5" s="34"/>
+    </row>
+    <row r="6" spans="1:4" ht="180.75">
+      <c r="A6" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B6" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="D6" s="34"/>
+    </row>
+    <row r="7" spans="1:4" ht="15.75">
+      <c r="A7" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="B7" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="50"/>
-    </row>
-    <row r="6" spans="1:4" ht="180.75">
-      <c r="A6" s="50" t="s">
-        <v>116</v>
-      </c>
-      <c r="B6" s="50" t="s">
-        <v>117</v>
-      </c>
-      <c r="C6" s="51" t="s">
-        <v>118</v>
-      </c>
-      <c r="D6" s="50"/>
-    </row>
-    <row r="7" spans="1:4" ht="15.75">
-      <c r="A7" s="50" t="s">
+      <c r="C7" s="36"/>
+      <c r="D7" s="34"/>
+    </row>
+    <row r="8" spans="1:4" ht="15.75">
+      <c r="A8" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="B8" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="36"/>
+      <c r="D8" s="34"/>
+    </row>
+    <row r="9" spans="1:4" ht="15.75">
+      <c r="A9" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="B9" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="50"/>
-    </row>
-    <row r="8" spans="1:4" ht="15.75">
-      <c r="A8" s="50" t="s">
-        <v>120</v>
-      </c>
-      <c r="B8" s="50" t="s">
+      <c r="C9" s="36"/>
+      <c r="D9" s="34"/>
+    </row>
+    <row r="10" spans="1:4" ht="15.75">
+      <c r="A10" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="B10" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="52"/>
-      <c r="D8" s="50"/>
-    </row>
-    <row r="9" spans="1:4" ht="15.75">
-      <c r="A9" s="50" t="s">
-        <v>121</v>
-      </c>
-      <c r="B9" s="50" t="s">
+      <c r="C10" s="36"/>
+      <c r="D10" s="34" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75">
+      <c r="A11" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="36"/>
+      <c r="D11" s="34"/>
+    </row>
+    <row r="12" spans="1:4" ht="15.75">
+      <c r="A12" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="B12" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="52"/>
-      <c r="D9" s="50"/>
-    </row>
-    <row r="10" spans="1:4" ht="15.75">
-      <c r="A10" s="50" t="s">
-        <v>122</v>
-      </c>
-      <c r="B10" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="52"/>
-      <c r="D10" s="50" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.75">
-      <c r="A11" s="50" t="s">
-        <v>124</v>
-      </c>
-      <c r="B11" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="52"/>
-      <c r="D11" s="50"/>
-    </row>
-    <row r="12" spans="1:4" ht="15.75">
-      <c r="A12" s="50" t="s">
-        <v>125</v>
-      </c>
-      <c r="B12" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
     </row>
     <row r="13" spans="1:4" ht="15.75">
-      <c r="A13" s="54" t="s">
+      <c r="A13" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="B13" s="55"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="55"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3277,7 +3772,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE912F72-140E-48EF-8F53-4729AA2845B1}">
   <dimension ref="A1:D28"/>
   <sheetViews>
@@ -3288,20 +3783,20 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:4" ht="18">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="59" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
     </row>
     <row r="2" spans="1:4" ht="15.75">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
     </row>
     <row r="3" spans="1:4" ht="14.25">
       <c r="A3" s="1" t="s">
@@ -3423,12 +3918,12 @@
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4" ht="15.75">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="46"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
     </row>
     <row r="15" spans="1:4" ht="14.25">
       <c r="A15" s="1"/>
@@ -3451,12 +3946,12 @@
       <c r="D16" s="1"/>
     </row>
     <row r="17" spans="1:4" ht="15.75">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="46"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
     </row>
     <row r="18" spans="1:4" ht="14.25">
       <c r="A18" s="1" t="s">
@@ -3485,12 +3980,12 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75">
-      <c r="A20" s="45" t="s">
+      <c r="A20" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="46"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="46"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
     </row>
     <row r="21" spans="1:4" ht="15">
       <c r="A21" s="5"/>
@@ -3512,12 +4007,12 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.75">
-      <c r="A23" s="45" t="s">
+      <c r="A23" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="46"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="46"/>
+      <c r="B23" s="54"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
     </row>
     <row r="24" spans="1:4" ht="14.25">
       <c r="A24" s="1" t="s">
@@ -3589,217 +4084,213 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BFB1634-C96F-4A06-93D7-5CA1D3909FBD}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:4" ht="18">
-      <c r="A1" s="48" t="s">
-        <v>150</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
+      <c r="A1" s="53" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
     </row>
     <row r="2" spans="1:4" ht="15.75">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
     </row>
     <row r="3" spans="1:4" ht="15">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
     </row>
     <row r="4" spans="1:4" ht="195.75">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="B4" s="58" t="s">
+      <c r="C4" s="37"/>
+      <c r="D4" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="58" t="s">
+    </row>
+    <row r="5" spans="1:4" ht="15.75">
+      <c r="A5" s="34" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75">
-      <c r="A5" s="57" t="s">
-        <v>115</v>
-      </c>
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="58"/>
-      <c r="D5" s="57"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="34"/>
     </row>
     <row r="6" spans="1:4" ht="180.75">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="B6" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="B6" s="57" t="s">
+      <c r="C6" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="D6" s="34"/>
+    </row>
+    <row r="7" spans="1:4" ht="15.75">
+      <c r="A7" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="C6" s="58" t="s">
-        <v>118</v>
-      </c>
-      <c r="D6" s="57"/>
-    </row>
-    <row r="7" spans="1:4" ht="15.75">
-      <c r="A7" s="57" t="s">
+      <c r="B7" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="36"/>
+      <c r="D7" s="34"/>
+    </row>
+    <row r="8" spans="1:4" ht="15.75">
+      <c r="A8" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="B7" s="57" t="s">
+      <c r="B8" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="36"/>
+      <c r="D8" s="34"/>
+    </row>
+    <row r="9" spans="1:4" ht="15.75">
+      <c r="A9" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="C9" s="36"/>
+      <c r="D9" s="34"/>
+    </row>
+    <row r="10" spans="1:4" ht="15.75">
+      <c r="A10" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B10" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="59"/>
-      <c r="D7" s="57"/>
-    </row>
-    <row r="8" spans="1:4" ht="15.75">
-      <c r="A8" s="57" t="s">
-        <v>130</v>
-      </c>
-      <c r="B8" s="57" t="s">
+      <c r="C10" s="36"/>
+      <c r="D10" s="34"/>
+    </row>
+    <row r="11" spans="1:4" ht="15.75">
+      <c r="A11" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="B11" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="59"/>
-      <c r="D8" s="57"/>
-    </row>
-    <row r="9" spans="1:4" ht="15.75">
-      <c r="A9" s="57" t="s">
-        <v>131</v>
-      </c>
-      <c r="B9" s="57" t="s">
-        <v>132</v>
-      </c>
-      <c r="C9" s="59"/>
-      <c r="D9" s="57"/>
-    </row>
-    <row r="10" spans="1:4" ht="15.75">
-      <c r="A10" s="57" t="s">
-        <v>133</v>
-      </c>
-      <c r="B10" s="57" t="s">
+      <c r="C11" s="36"/>
+      <c r="D11" s="34"/>
+    </row>
+    <row r="12" spans="1:4" ht="75.75">
+      <c r="A12" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="B12" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="59"/>
-      <c r="D10" s="57"/>
-    </row>
-    <row r="11" spans="1:4" ht="15.75">
-      <c r="A11" s="57" t="s">
-        <v>134</v>
-      </c>
-      <c r="B11" s="57" t="s">
+      <c r="C12" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75">
+      <c r="A13" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="C13" s="36"/>
+      <c r="D13" s="34"/>
+    </row>
+    <row r="14" spans="1:4" ht="15.75">
+      <c r="A14" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+    </row>
+    <row r="15" spans="1:4" ht="135">
+      <c r="A15" s="40" t="s">
+        <v>138</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="D15" s="39" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75">
+      <c r="A16" s="56" t="s">
+        <v>106</v>
+      </c>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+    </row>
+    <row r="17" spans="1:4" ht="30.75">
+      <c r="A17" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="B17" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="59"/>
-      <c r="D11" s="57"/>
-    </row>
-    <row r="12" spans="1:4" ht="75.75">
-      <c r="A12" s="57" t="s">
-        <v>135</v>
-      </c>
-      <c r="B12" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="59" t="s">
-        <v>136</v>
-      </c>
-      <c r="D12" s="57" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.75">
-      <c r="A13" s="57" t="s">
-        <v>137</v>
-      </c>
-      <c r="B13" s="57" t="s">
-        <v>138</v>
-      </c>
-      <c r="C13" s="59"/>
-      <c r="D13" s="57"/>
-    </row>
-    <row r="14" spans="1:4" ht="15.75">
-      <c r="A14" s="54" t="s">
-        <v>56</v>
-      </c>
-      <c r="B14" s="55"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
-    </row>
-    <row r="15" spans="1:4" ht="135">
-      <c r="A15" s="63" t="s">
-        <v>139</v>
-      </c>
-      <c r="B15" s="59" t="s">
-        <v>140</v>
-      </c>
-      <c r="C15" s="61" t="s">
-        <v>141</v>
-      </c>
-      <c r="D15" s="61" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.75">
-      <c r="A16" s="54" t="s">
-        <v>107</v>
-      </c>
-      <c r="B16" s="55"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="55"/>
-    </row>
-    <row r="17" spans="1:4" ht="30.75">
-      <c r="A17" s="63" t="s">
+      <c r="C17" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="B17" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="61" t="s">
+    </row>
+    <row r="18" spans="1:4" ht="120">
+      <c r="B18" s="37" t="s">
         <v>144</v>
       </c>
-      <c r="D17" s="56"/>
-    </row>
-    <row r="18" spans="1:4" ht="120">
-      <c r="A18" s="56"/>
-      <c r="B18" s="62" t="s">
+      <c r="C18" s="39" t="s">
         <v>145</v>
       </c>
-      <c r="C18" s="61" t="s">
+      <c r="D18" s="39"/>
+    </row>
+    <row r="19" spans="1:4" ht="150">
+      <c r="B19" s="38"/>
+      <c r="C19" s="37" t="s">
         <v>146</v>
       </c>
-      <c r="D18" s="61"/>
-    </row>
-    <row r="19" spans="1:4" ht="150">
-      <c r="A19" s="56"/>
-      <c r="B19" s="60"/>
-      <c r="C19" s="62" t="s">
+      <c r="D19" s="37" t="s">
         <v>147</v>
       </c>
-      <c r="D19" s="62" t="s">
+    </row>
+    <row r="20" spans="1:4" ht="375">
+      <c r="A20" s="42"/>
+      <c r="B20" s="37" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="375">
-      <c r="A20" s="65"/>
-      <c r="B20" s="62" t="s">
-        <v>149</v>
-      </c>
-      <c r="C20" s="56"/>
-      <c r="D20" s="64"/>
+      <c r="D20" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="4">
